--- a/examples/sources/data/unsolved/to_schedule/2019-02-22.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-02-22.xlsx
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1391,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
         <v>43518</v>
@@ -1605,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="2">
         <v>43518</v>
@@ -1769,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="2">
         <v>43518</v>
@@ -2197,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" s="2">
         <v>43518</v>
@@ -2320,7 +2320,7 @@
         <v>1</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" s="2">
         <v>43518</v>
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" s="2">
         <v>43518</v>
@@ -2443,7 +2443,7 @@
         <v>1</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" s="2">
         <v>43518</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2980,7 +2980,7 @@
         <v>1</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" s="2">
         <v>43518</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3408,7 +3408,7 @@
         <v>1</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60" s="2">
         <v>43518</v>
@@ -4510,7 +4510,7 @@
         <v>1</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O86" s="2">
         <v>43518</v>
@@ -5480,7 +5480,7 @@
         <v>1</v>
       </c>
       <c r="N109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O109" s="2">
         <v>43518</v>
@@ -5767,7 +5767,7 @@
         <v>1</v>
       </c>
       <c r="N116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O116" s="2">
         <v>43518</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="M118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N118">
         <v>1</v>
@@ -6060,7 +6060,7 @@
         <v>0</v>
       </c>
       <c r="M123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N123">
         <v>1</v>
@@ -6224,7 +6224,7 @@
         <v>0</v>
       </c>
       <c r="M127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N127">
         <v>1</v>
@@ -7183,7 +7183,7 @@
         <v>1</v>
       </c>
       <c r="N149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O149" s="2">
         <v>43518</v>
@@ -7224,7 +7224,7 @@
         <v>1</v>
       </c>
       <c r="N150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O150" s="2">
         <v>43518</v>
@@ -7265,7 +7265,7 @@
         <v>1</v>
       </c>
       <c r="N151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O151" s="2">
         <v>43518</v>
@@ -7388,7 +7388,7 @@
         <v>1</v>
       </c>
       <c r="N154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O154" s="2">
         <v>43518</v>
